--- a/model/results/ELEC/b_tech.xlsx
+++ b/model/results/ELEC/b_tech.xlsx
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4729712439979631</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -7396,16 +7396,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4729712439979631</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -7472,13 +7472,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -7873,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -8329,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -8633,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -8937,7 +8937,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9241,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -9469,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10572,13 +10572,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10648,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -10788,7 +10788,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -10800,13 +10800,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -11277,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -11657,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -11809,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -12113,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -12189,7 +12189,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -12341,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -12645,7 +12645,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -12797,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -12873,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -13964,7 +13964,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -14116,7 +14116,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -14529,7 +14529,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -14681,7 +14681,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -14757,7 +14757,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -14833,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -14985,7 +14985,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -15137,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -15289,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -15365,7 +15365,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -15517,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -15593,7 +15593,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -15669,7 +15669,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -15745,7 +15745,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -15821,7 +15821,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -15973,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -16049,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -17228,13 +17228,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -17444,7 +17444,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -17857,7 +17857,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -18009,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -18085,7 +18085,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -18161,7 +18161,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -18237,7 +18237,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -18313,7 +18313,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -18389,7 +18389,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -18465,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -18541,7 +18541,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -18617,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -18693,7 +18693,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -18769,7 +18769,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -18845,7 +18845,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -18921,7 +18921,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -18997,7 +18997,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -19073,7 +19073,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -19149,7 +19149,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -19301,7 +19301,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -19377,7 +19377,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -19453,7 +19453,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -19529,7 +19529,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -20556,13 +20556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -21185,7 +21185,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -21261,7 +21261,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -21337,7 +21337,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -21413,7 +21413,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -21489,7 +21489,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -21565,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -21717,7 +21717,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -21793,7 +21793,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -21869,7 +21869,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -21945,7 +21945,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22021,7 +22021,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -22097,7 +22097,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -22173,7 +22173,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22249,7 +22249,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -22325,7 +22325,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -22401,7 +22401,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -22477,7 +22477,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -22629,7 +22629,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -22781,7 +22781,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -22857,7 +22857,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23884,13 +23884,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -24513,7 +24513,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -24589,7 +24589,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -24665,7 +24665,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -24741,7 +24741,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -24817,7 +24817,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -24893,7 +24893,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -24969,7 +24969,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -25045,7 +25045,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -25121,7 +25121,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -25197,7 +25197,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -25273,7 +25273,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -25349,7 +25349,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -25425,7 +25425,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -25501,7 +25501,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -25577,7 +25577,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -25653,7 +25653,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -25729,7 +25729,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -25805,7 +25805,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -25881,7 +25881,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -25957,7 +25957,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -26033,7 +26033,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -26109,7 +26109,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -26185,7 +26185,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -27841,7 +27841,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -27917,7 +27917,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -27993,7 +27993,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -28069,7 +28069,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28145,7 +28145,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28221,7 +28221,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -28297,7 +28297,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28373,7 +28373,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28449,7 +28449,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -28525,7 +28525,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28601,7 +28601,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28677,7 +28677,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -28753,7 +28753,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28829,7 +28829,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -28905,7 +28905,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -28981,7 +28981,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29057,7 +29057,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29133,7 +29133,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -29209,7 +29209,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29285,7 +29285,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29361,7 +29361,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -29437,7 +29437,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29513,7 +29513,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -31169,7 +31169,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -31245,7 +31245,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -31321,7 +31321,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31397,7 +31397,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -31473,7 +31473,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -31549,7 +31549,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -31625,7 +31625,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -31701,7 +31701,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -31777,7 +31777,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -31853,7 +31853,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -31929,7 +31929,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -32005,7 +32005,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -32157,7 +32157,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -32233,7 +32233,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -32385,7 +32385,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -32537,7 +32537,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -32613,7 +32613,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -32689,7 +32689,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -32765,7 +32765,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -32841,7 +32841,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -34497,7 +34497,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -34573,7 +34573,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -34649,7 +34649,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -34725,7 +34725,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -35561,7 +35561,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -35637,7 +35637,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -35713,7 +35713,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -35789,7 +35789,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -35865,7 +35865,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -35941,7 +35941,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36017,7 +36017,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36093,7 +36093,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -36169,7 +36169,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37184,7 +37184,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -37260,7 +37260,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -41153,7 +41153,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -41229,7 +41229,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -41305,7 +41305,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -41381,7 +41381,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -41457,7 +41457,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -41533,7 +41533,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -41609,7 +41609,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -41685,7 +41685,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -41761,7 +41761,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -41837,7 +41837,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -41913,7 +41913,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -41989,7 +41989,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -42065,7 +42065,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -42141,7 +42141,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -42217,7 +42217,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -42293,7 +42293,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -42369,7 +42369,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -42445,7 +42445,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -42521,7 +42521,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -42597,7 +42597,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -42673,7 +42673,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -42749,7 +42749,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -42825,7 +42825,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -43840,7 +43840,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -43916,7 +43916,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -43992,7 +43992,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -44068,7 +44068,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -47168,7 +47168,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -47244,7 +47244,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -47320,7 +47320,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -47396,7 +47396,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -50496,7 +50496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -50572,7 +50572,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -50648,7 +50648,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -50724,7 +50724,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -53824,7 +53824,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -53900,7 +53900,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -53976,7 +53976,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -53997,7 +53997,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4729712439979631</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -54052,7 +54052,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -57152,7 +57152,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -57228,7 +57228,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -57304,7 +57304,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -57325,7 +57325,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4729712439979631</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -57380,7 +57380,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -60480,7 +60480,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -60556,7 +60556,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -60632,7 +60632,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -60653,7 +60653,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4729712439979631</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -60708,7 +60708,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -63808,7 +63808,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -63884,7 +63884,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -63960,7 +63960,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7692307692307695</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -63981,7 +63981,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4729712439979631</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -64036,7 +64036,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -64449,7 +64449,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -64525,7 +64525,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -64601,7 +64601,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -64677,7 +64677,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -64753,7 +64753,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -64829,7 +64829,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -64905,7 +64905,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -64981,7 +64981,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -65057,7 +65057,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -65133,7 +65133,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -65209,7 +65209,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -65285,7 +65285,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -65361,7 +65361,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -65437,7 +65437,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -65513,7 +65513,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -65589,7 +65589,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -65665,7 +65665,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -65741,7 +65741,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -65817,7 +65817,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -65893,7 +65893,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -65969,7 +65969,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -66045,7 +66045,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -66121,7 +66121,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
